--- a/docs/1.Envisioning/other/Аналіз проектних ризиків.xlsx
+++ b/docs/1.Envisioning/other/Аналіз проектних ризиків.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Загрузки Chrome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBDB82E-1C5A-40E0-929E-346C65E1FD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B65E8C-5379-444B-834D-9E51A9CEE7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="97">
   <si>
     <t>#</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Неправильне призначення ролей та обов'язків</t>
   </si>
   <si>
-    <t xml:space="preserve">Проблеми зі сумісністю між різними системами </t>
-  </si>
-  <si>
     <t>Відсутність необхідного обладнання</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>Зміни в законодавстві</t>
   </si>
   <si>
-    <t>Затримки в роботі проекту</t>
-  </si>
-  <si>
     <t>Затримки в роботі проекту, погіршення якості роботи</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
     <t>Потреба в зміні стратегії або процесів, втрата грошей</t>
   </si>
   <si>
-    <t>Втрата фінансових ресурсів, скорочення проекту</t>
-  </si>
-  <si>
     <t>Зменшення прибутку, зниження сприйняття бренду</t>
   </si>
   <si>
@@ -235,15 +226,6 @@
     <t>Землетрус, повінь, ураган, пожежа і т.д.</t>
   </si>
   <si>
-    <t>Перевірка сумісності систем перед початком проекту</t>
-  </si>
-  <si>
-    <t>Використання стандартних протоколів інтеграції</t>
-  </si>
-  <si>
-    <t>Несумісність систем при спробі їх інтеграції</t>
-  </si>
-  <si>
     <t>Перевірка наявності необхідного обладнання перед початком проекту</t>
   </si>
   <si>
@@ -329,6 +311,9 @@
   </si>
   <si>
     <t>Берлін Маргаріта    Ковтун Євген</t>
+  </si>
+  <si>
+    <t>Скорочення проекту</t>
   </si>
 </sst>
 </file>
@@ -647,10 +632,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -707,7 +692,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2">
         <v>0.8</v>
@@ -716,20 +701,20 @@
         <v>4</v>
       </c>
       <c r="F2" s="2">
-        <f>D2*E2</f>
+        <f t="shared" ref="F2:F17" si="0">D2*E2</f>
         <v>3.2</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.2">
@@ -740,7 +725,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2">
         <v>0.8</v>
@@ -749,20 +734,20 @@
         <v>4</v>
       </c>
       <c r="F3" s="2">
-        <f>D3*E3</f>
+        <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -773,7 +758,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2">
         <v>0.7</v>
@@ -782,20 +767,20 @@
         <v>4</v>
       </c>
       <c r="F4" s="2">
-        <f>D4*E4</f>
+        <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -803,10 +788,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2">
         <v>0.5</v>
@@ -815,20 +800,20 @@
         <v>5</v>
       </c>
       <c r="F5" s="2">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
@@ -836,10 +821,10 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2">
         <v>0.5</v>
@@ -848,20 +833,20 @@
         <v>5</v>
       </c>
       <c r="F6" s="2">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -872,7 +857,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2">
         <v>0.6</v>
@@ -881,20 +866,20 @@
         <v>4</v>
       </c>
       <c r="F7" s="2">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
@@ -905,7 +890,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>0.7</v>
@@ -914,20 +899,20 @@
         <v>3</v>
       </c>
       <c r="F8" s="2">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
@@ -935,10 +920,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2">
         <v>0.7</v>
@@ -947,20 +932,20 @@
         <v>3</v>
       </c>
       <c r="F9" s="2">
-        <f>D9*E9</f>
+        <f t="shared" si="0"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="76.5" x14ac:dyDescent="0.2">
@@ -971,7 +956,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2">
         <v>0.6</v>
@@ -980,31 +965,31 @@
         <v>3</v>
       </c>
       <c r="F10" s="2">
-        <f>D10*E10</f>
+        <f t="shared" si="0"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2">
         <v>0.6</v>
@@ -1013,64 +998,64 @@
         <v>3</v>
       </c>
       <c r="F11" s="2">
-        <f>D11*E11</f>
+        <f t="shared" si="0"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2">
-        <f>D12*E12</f>
-        <v>1.7999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1.6</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>86</v>
+        <v>69</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <v>0.4</v>
@@ -1079,97 +1064,97 @@
         <v>4</v>
       </c>
       <c r="F13" s="2">
-        <f>D13*E13</f>
+        <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>14</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>17</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="E14" s="2">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2">
-        <f>D14*E14</f>
-        <v>1.6</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="2">
-        <v>3</v>
-      </c>
-      <c r="F15" s="2">
-        <f>D15*E15</f>
-        <v>1.5</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>0.3</v>
@@ -1178,87 +1163,66 @@
         <v>4</v>
       </c>
       <c r="F16" s="2">
-        <f>D16*E16</f>
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="C17" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E17" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" s="2">
-        <f>D17*E17</f>
-        <v>1.2</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>8</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2</v>
-      </c>
-      <c r="F18" s="2">
-        <f>D18*E18</f>
-        <v>0.8</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
@@ -1284,24 +1248,13 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
+    <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J18">
-    <sortCondition descending="1" ref="F1:F18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J17">
+    <sortCondition descending="1" ref="F1:F17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1312,7 +1265,7 @@
           <x14:formula1>
             <xm:f>Люди!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J21</xm:sqref>
+          <xm:sqref>J2:J20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1336,34 +1289,34 @@
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/docs/1.Envisioning/other/Аналіз проектних ризиків.xlsx
+++ b/docs/1.Envisioning/other/Аналіз проектних ризиків.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Загрузки Chrome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B65E8C-5379-444B-834D-9E51A9CEE7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E59985-2BAD-45FD-B29B-5D9587C8FED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -635,7 +635,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="5" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>19</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="6" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>22</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="9" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="11" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>18</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>28</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>21</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="16" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>24</v>
